--- a/checks/results/HLR_results_2_Dunn_fams_tPBC.xlsx
+++ b/checks/results/HLR_results_2_Dunn_fams_tPBC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Model Level</t>
   </si>
@@ -85,64 +85,85 @@
     <t>['N1ratio-ArgsPreds']</t>
   </si>
   <si>
-    <t>['N1ratio-ArgsPreds', 'Nlen_freq', 'Vlen_freq']</t>
-  </si>
-  <si>
-    <t>['N1ratio-ArgsPreds', 'Nlen_freq', 'Vlen_freq', 'Fam_class']</t>
-  </si>
-  <si>
-    <t>{'const': 0.9506404812804417, 'N1ratio-ArgsPreds': -0.26213430930259857}</t>
-  </si>
-  <si>
-    <t>{'const': 0.5315551649480463, 'N1ratio-ArgsPreds': -0.24880434940057172, 'Nlen_freq': -0.014935288402513748, 'Vlen_freq': 0.07483687642341119}</t>
-  </si>
-  <si>
-    <t>{'const': 0.4554945651122083, 'N1ratio-ArgsPreds': -0.24091074571702162, 'Nlen_freq': 0.011192934875993429, 'Vlen_freq': 0.06393756917838128, 'Fam_class': -0.001608289451237304}</t>
-  </si>
-  <si>
-    <t>{'const': 1.0043220808316534e-71, 'N1ratio-ArgsPreds': 9.035813650586962e-46}</t>
-  </si>
-  <si>
-    <t>{'const': 2.155963581622461e-05, 'N1ratio-ArgsPreds': 5.865400135560266e-42, 'Nlen_freq': 0.645802336109168, 'Vlen_freq': 0.0034048613862172074}</t>
-  </si>
-  <si>
-    <t>{'const': 0.00043424821418337365, 'N1ratio-ArgsPreds': 1.5315616859078524e-38, 'Nlen_freq': 0.7468951327999895, 'Vlen_freq': 0.013713878624184573, 'Fam_class': 0.036666465290916044}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.6212513310133833}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5896596810934576, 'Nlen_freq': -0.03169986114887207, 'Vlen_freq': 0.20550605931012766}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5709520506121811, 'Nlen_freq': 0.023756788074988947, 'Vlen_freq': 0.1755759795395118, 'Fam_class': -0.08841525549971388}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.6212513310133834}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.6007055686863755, 'Nlen_freq': -0.022653772980728133, 'Vlen_freq': 0.14362046621668215}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5802926991555527, 'Nlen_freq': 0.015928072006134376, 'Vlen_freq': 0.12119852666087587, 'Fam_class': -0.10285444960114222}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.6212513310133835}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5735423662604813, 'Nlen_freq': -0.017296499218010568, 'Vlen_freq': 0.11077670248746632}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': -0.5410056887960031, 'Nlen_freq': 0.01209525593249681, 'Vlen_freq': 0.09270591549577661, 'Fam_class': -0.0785107787055386}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 38.59532162859006}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 32.895084589567205, 'Nlen_freq': 0.02991688851986402, 'Vlen_freq': 1.2271477813996627}</t>
-  </si>
-  <si>
-    <t>{'N1ratio-ArgsPreds': 29.268715530963775, 'Nlen_freq': 0.014629521607259928, 'Vlen_freq': 0.8594386767910075, 'Fam_class': 0.6163942372950054}</t>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class']</t>
+  </si>
+  <si>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class', 'Fam_class']</t>
+  </si>
+  <si>
+    <t>['N1ratio-ArgsPreds', 'latitude', 'longitude', 'Macro_class', 'Fam_class', 'Nlen_freq', 'Vlen_freq']</t>
+  </si>
+  <si>
+    <t>{'const': 0.8158622228498638, 'N1ratio-ArgsPreds': -0.23974231781280247}</t>
+  </si>
+  <si>
+    <t>{'const': 0.5707301483093369, 'N1ratio-ArgsPreds': -0.23736630054157704, 'latitude': 0.004125113705238998, 'longitude': 0.0003535003417894755, 'Macro_class': 0.07277894332771967}</t>
+  </si>
+  <si>
+    <t>{'const': 0.6961464576636499, 'N1ratio-ArgsPreds': -0.234080535081691, 'latitude': 0.003932715362527422, 'longitude': -6.492392921279064e-05, 'Macro_class': 0.058273569555529196, 'Fam_class': -0.0017571297445560055}</t>
+  </si>
+  <si>
+    <t>{'const': 0.3013014345823354, 'N1ratio-ArgsPreds': -0.2187528504296818, 'latitude': 0.0038626991338975582, 'longitude': -0.0005816308890785551, 'Macro_class': 0.03965047136416332, 'Fam_class': -0.004469086952158804, 'Nlen_freq': 0.047799212071237, 'Vlen_freq': 0.03496604140457689}</t>
+  </si>
+  <si>
+    <t>{'const': 3.861723678139761e-68, 'N1ratio-ArgsPreds': 1.4607799151140621e-43}</t>
+  </si>
+  <si>
+    <t>{'const': 4.590399335908072e-33, 'N1ratio-ArgsPreds': 6.126742452179407e-49, 'latitude': 5.991196955199697e-07, 'longitude': 0.16164137009314025, 'Macro_class': 9.880785720371535e-12}</t>
+  </si>
+  <si>
+    <t>{'const': 1.2854831552068233e-13, 'N1ratio-ArgsPreds': 3.5622512818011976e-47, 'latitude': 2.3833674210851503e-06, 'longitude': 0.8596779117771504, 'Macro_class': 3.455875400858192e-05, 'Fam_class': 0.11769560292191579}</t>
+  </si>
+  <si>
+    <t>{'const': 0.01167273354297994, 'N1ratio-ArgsPreds': 9.545059203789041e-42, 'latitude': 2.1179641117540256e-06, 'longitude': 0.11720723741364805, 'Macro_class': 0.005383749551475992, 'Fam_class': 0.0002506822457137312, 'Nlen_freq': 0.07177602002568405, 'Vlen_freq': 0.06612207205839887}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5479438411342928}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5425133270637095, 'latitude': 0.18532462755220405, 'longitude': 0.05907319878123149, 'Macro_class': 0.2765293156965464}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5350035350354112, 'latitude': 0.17668095037079692, 'longitude': -0.010849393119766336, 'Macro_class': 0.22141500790721202, 'Fam_class': -0.11935728648818478}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.4999712950848697, 'latitude': 0.17353540520025776, 'longitude': -0.0971959375029516, 'Macro_class': 0.15065508252854065, 'Fam_class': -0.30357353709484436, 'Nlen_freq': 0.10205990338527482, 'Vlen_freq': 0.10161364849679277}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5479438411342936}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5772079889797707, 'latitude': 0.21360542253202497, 'longitude': 0.06053820186776226, 'Macro_class': 0.2884699120894178}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5687521701925946, 'latitude': 0.20233083487677564, 'longitude': -0.007660853127783767, 'Macro_class': 0.1780213224686194, 'Fam_class': -0.06772080829358151}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5404188496272267, 'latitude': 0.20371213287087744, 'longitude': -0.06793824368417971, 'Macro_class': 0.12039455798165379, 'Fam_class': -0.15797378583359561, 'Nlen_freq': 0.07805411206423138, 'Vlen_freq': 0.07965558414275081}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5479438411342935}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.534463625943419, 'latitude': 0.16532820660595793, 'longitude': 0.04585856776705677, 'Macro_class': 0.2278035235834368}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.5216485146302986, 'latitude': 0.15585983719914648, 'longitude': -0.005779435483898172, 'Macro_class': 0.13647739071120824, 'Fam_class': -0.05120540714737771}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': -0.4717623989193407, 'latitude': 0.15283185281610756, 'longitude': -0.05001637956245846, 'Macro_class': 0.0890780616243271, 'Fam_class': -0.11750766774176961, 'Nlen_freq': 0.057506394876072425, 'Vlen_freq': 0.05869373797906177}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 30.024245303700386}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 28.56513674565869, 'latitude': 2.733341589954231, 'longitude': 0.21030082376457382, 'Macro_class': 5.189444535702945}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 27.211717281599686, 'latitude': 2.4292288851744446, 'longitude': 0.0033401874512541297, 'Macro_class': 1.8626078175339789, 'Fam_class': 0.26219937211287203}</t>
+  </si>
+  <si>
+    <t>{'N1ratio-ArgsPreds': 22.255976103413115, 'latitude': 2.3357575235204364, 'longitude': 0.25016382245359126, 'Macro_class': 0.7934901062747418, 'Fam_class': 1.3808051978110123, 'Nlen_freq': 0.3306985451642769, 'Vlen_freq': 0.34449548779547584}</t>
   </si>
 </sst>
 </file>
@@ -500,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,55 +606,55 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>416</v>
+        <v>539</v>
       </c>
       <c r="E2">
-        <v>414</v>
+        <v>537</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3859532162859003</v>
+        <v>0.3002424530370029</v>
       </c>
       <c r="H2">
-        <v>260.2157291271776</v>
+        <v>230.4086579424865</v>
       </c>
       <c r="I2">
-        <v>9.035813650587832E-46</v>
+        <v>1.460779915114385E-43</v>
       </c>
       <c r="J2">
-        <v>55.335062086236</v>
+        <v>71.15456703886447</v>
       </c>
       <c r="K2">
-        <v>90.11538461538464</v>
+        <v>101.6846011131726</v>
       </c>
       <c r="L2">
-        <v>34.78032252914864</v>
+        <v>30.53003407430809</v>
       </c>
       <c r="M2">
-        <v>0.1336595702566087</v>
+        <v>0.1325038492343845</v>
       </c>
       <c r="N2">
-        <v>0.2171455050973124</v>
+        <v>0.1890048347828486</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -647,64 +668,64 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>416</v>
+        <v>539</v>
       </c>
       <c r="E3">
-        <v>412</v>
+        <v>534</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0.417343761514353</v>
+        <v>0.4282747392666378</v>
       </c>
       <c r="H3">
-        <v>98.36882561079744</v>
+        <v>100.0037633788599</v>
       </c>
       <c r="I3">
-        <v>4.975500038044727E-48</v>
+        <v>1.702338642847579E-63</v>
       </c>
       <c r="J3">
-        <v>52.50629102968735</v>
+        <v>58.13565508399651</v>
       </c>
       <c r="K3">
-        <v>90.11538461538464</v>
+        <v>101.6846011131726</v>
       </c>
       <c r="L3">
-        <v>12.53636452856576</v>
+        <v>10.88723650729401</v>
       </c>
       <c r="M3">
-        <v>0.1274424539555518</v>
+        <v>0.108868267947559</v>
       </c>
       <c r="N3">
-        <v>0.2171455050973124</v>
+        <v>0.1890048347828486</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="U3">
-        <v>0.03139054522845275</v>
+        <v>0.1280322862296349</v>
       </c>
       <c r="V3">
-        <v>11.09822892116954</v>
+        <v>39.86136089149219</v>
       </c>
       <c r="W3">
-        <v>2.020475602594318E-05</v>
+        <v>2.945126212213881E-23</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -718,64 +739,135 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>416</v>
+        <v>539</v>
       </c>
       <c r="E4">
-        <v>411</v>
+        <v>533</v>
       </c>
       <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>0.4308967329877673</v>
+      </c>
+      <c r="H4">
+        <v>80.71222640777542</v>
+      </c>
+      <c r="I4">
+        <v>5.384584677552259E-63</v>
+      </c>
+      <c r="J4">
+        <v>57.86903869834222</v>
+      </c>
+      <c r="K4">
+        <v>101.6846011131726</v>
+      </c>
+      <c r="L4">
+        <v>8.763112482966068</v>
+      </c>
+      <c r="M4">
+        <v>0.108572305250173</v>
+      </c>
+      <c r="N4">
+        <v>0.1890048347828486</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4">
+        <v>0.002621993721129479</v>
+      </c>
+      <c r="V4">
+        <v>2.455657407659853</v>
+      </c>
+      <c r="W4">
+        <v>0.1176956029219286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>0.4235077038873031</v>
-      </c>
-      <c r="H4">
-        <v>75.48308428030353</v>
-      </c>
-      <c r="I4">
-        <v>6.133391846361107E-48</v>
-      </c>
-      <c r="J4">
-        <v>51.95082499200189</v>
-      </c>
-      <c r="K4">
-        <v>90.11538461538464</v>
-      </c>
-      <c r="L4">
-        <v>9.541139905845688</v>
-      </c>
-      <c r="M4">
-        <v>0.1264010340438002</v>
-      </c>
-      <c r="N4">
-        <v>0.2171455050973124</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>539</v>
+      </c>
+      <c r="E5">
+        <v>531</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>0.4605058979068151</v>
+      </c>
+      <c r="H5">
+        <v>64.75077586305163</v>
+      </c>
+      <c r="I5">
+        <v>3.55672114852878E-67</v>
+      </c>
+      <c r="J5">
+        <v>54.85824257425471</v>
+      </c>
+      <c r="K5">
+        <v>101.6846011131726</v>
+      </c>
+      <c r="L5">
+        <v>6.689479791273979</v>
+      </c>
+      <c r="M5">
+        <v>0.1033111912886153</v>
+      </c>
+      <c r="N5">
+        <v>0.1890048347828486</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4">
-        <v>0.006163942372950038</v>
-      </c>
-      <c r="V4">
-        <v>4.394473841827753</v>
-      </c>
-      <c r="W4">
-        <v>0.03666646529092039</v>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5">
+        <v>0.02960916491904775</v>
+      </c>
+      <c r="V5">
+        <v>14.57149069008605</v>
+      </c>
+      <c r="W5">
+        <v>6.906177973554183E-07</v>
       </c>
     </row>
   </sheetData>
